--- a/excel_data/Book1.xlsx
+++ b/excel_data/Book1.xlsx
@@ -1,66 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamaokana/Desktop/project_2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A6912-B63D-0046-8001-3E28D1009B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2040" windowWidth="16660" windowHeight="15880" xr2:uid="{EB1F202C-E817-8E4F-A3CE-9788DDD98E95}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12180" yWindow="2040" windowWidth="16660" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,28 +51,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,7 +431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9756846-148B-B44B-9560-4064D54C5D7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -406,108 +444,109 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>データA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_data/Book1.xlsx
+++ b/excel_data/Book1.xlsx
@@ -1,41 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamaokana/Desktop/project_2/excel_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08800BA-1F8E-AA48-8B80-B2D4332643EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12180" yWindow="2040" windowWidth="16660" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="12740" yWindow="2040" windowWidth="16660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,87 +59,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,122 +385,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>データA1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>20</v>
-      </c>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_data/Book1.xlsx
+++ b/excel_data/Book1.xlsx
@@ -15,9 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,7 +57,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -71,7 +70,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -452,265 +450,173 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D24"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col width="19" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="19" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="19" bestFit="1" customWidth="1" style="3" min="3" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="n">
-        <v>45209.654516956</v>
+        <v>45216.55805616898</v>
       </c>
       <c r="B1" s="5" t="n">
-        <v>45209.64034422454</v>
+        <v>45216.55848939815</v>
       </c>
       <c r="C1" s="5" t="n">
-        <v>45209.64046856482</v>
+        <v>45216.55859780093</v>
       </c>
       <c r="D1" s="5" t="n">
-        <v>45209.63960321759</v>
+        <v>45216.55867327546</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45209.654516956</v>
+        <v>45216.55830181713</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>45209.64034422454</v>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n">
+        <v>45216.5759225</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>45209.64046856482</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>45209.63960321759</v>
-      </c>
+      <c r="D2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>45209.654516956</v>
+        <v>45216.57532178241</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
-      <c r="D3" s="6" t="n">
-        <v>45209.63960321759</v>
-      </c>
+      <c r="D3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>45209.654516956</v>
+        <v>45216.5757066088</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="B4" s="5" t="n"/>
       <c r="C4" s="5" t="n"/>
-      <c r="D4" s="6" t="n">
-        <v>45209.63960321759</v>
-      </c>
+      <c r="D4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>45209.654516956</v>
+        <v>45216.57658172895</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
-      <c r="D5" s="6" t="n">
-        <v>45209.63960321759</v>
-      </c>
+      <c r="D5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
-      <c r="D6" s="6" t="n">
-        <v>45209.63960321759</v>
-      </c>
+      <c r="D6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="5" t="n"/>
       <c r="C7" s="5" t="n"/>
-      <c r="D7" s="6" t="n">
-        <v>45209.63960321759</v>
-      </c>
+      <c r="D7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="5" t="n"/>
       <c r="C8" s="5" t="n"/>
-      <c r="D8" s="6" t="n">
-        <v>45209.63960321759</v>
-      </c>
+      <c r="D8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>45209.64034422454</v>
-      </c>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A14" s="4" t="n"/>
       <c r="B14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A15" s="4" t="n"/>
       <c r="B15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A16" s="4" t="n"/>
       <c r="B16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A17" s="4" t="n"/>
       <c r="B17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A18" s="4" t="n"/>
       <c r="B18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A19" s="4" t="n"/>
       <c r="B19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A20" s="4" t="n"/>
       <c r="B20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A21" s="5" t="n"/>
       <c r="B21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n">
-        <v>45209.654516956</v>
-      </c>
+      <c r="A33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>

--- a/excel_data/Book1.xlsx
+++ b/excel_data/Book1.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12740" yWindow="2040" windowWidth="16660" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7020" yWindow="2040" windowWidth="22380" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="memory" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,9 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="游ゴシック"/>
@@ -57,19 +55,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -447,411 +436,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col width="19" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="19" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="19" bestFit="1" customWidth="1" style="3" min="3" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="n">
-        <v>45216.55805616898</v>
-      </c>
-      <c r="B1" s="5" t="n">
-        <v>45216.55848939815</v>
-      </c>
-      <c r="C1" s="5" t="n">
-        <v>45216.55859780093</v>
-      </c>
-      <c r="D1" s="5" t="n">
-        <v>45216.55867327546</v>
+      <c r="A1" s="0" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1557</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1557</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>45216.55830181713</v>
-      </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n">
-        <v>45216.5759225</v>
-      </c>
-      <c r="D2" s="5" t="n"/>
+      <c r="A2" s="0" t="n">
+        <v>1612</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1613</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1612</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45216.57532178241</v>
-      </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
+      <c r="D3" s="0" t="n">
+        <v>1613</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45216.5757066088</v>
-      </c>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45216.57658172895</v>
-      </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="5" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="5" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="5" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="5" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="5" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="5" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="5" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="5" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="5" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="n"/>
-    </row>
+    <row r="4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_data/Book1.xlsx
+++ b/excel_data/Book1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,18 +475,45 @@
         <v>1612</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>227</v>
+      </c>
       <c r="D3" s="0" t="n">
         <v>1613</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>230</v>
+      </c>
+      <c r="B4" t="n">
+        <v>230</v>
+      </c>
+      <c r="C4" t="n">
+        <v>230</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="n">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
